--- a/Data/05_Mobilitet og infrastruktur/Vare- og godstransport/2023/Figur 1 Innenlands godstransport medregnet kabotasje etter type transportarbeid Indeks 2010 = 100.xlsx
+++ b/Data/05_Mobilitet og infrastruktur/Vare- og godstransport/2023/Figur 1 Innenlands godstransport medregnet kabotasje etter type transportarbeid Indeks 2010 = 100.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vtfk-my.sharepoint.com/personal/ellen_just_hansen_vtfk_no/Documents/Dokumenter/GitHub/Vestfold/Data/05_Mobilitet og infrastruktur/Vare- og godstransport/2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{672E8950-CA4F-4ECF-9760-45524A807368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="8_{672E8950-CA4F-4ECF-9760-45524A807368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{11178ED3-9047-446A-82F3-369064EC13E2}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="2265" windowWidth="18930" windowHeight="13215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="43200" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GodsmInklKabotasje" sheetId="2" r:id="rId1"/>
@@ -19,73 +19,10 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>PX-Web Ekstern</author>
-  </authors>
-  <commentList>
-    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Tonnkilometertallene for jernbanetransport i 2018 ble justert 16. september 2020 som følge av endringer i den underliggende statistikken.
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>11403: Innenlandsk godstransport, etter statistikkvariabel, godstransport og år</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>2022</t>
   </si>
   <si>
     <t>Godsmengde inklusiv kabotasjetransport (mill. tonn)</t>
@@ -176,7 +113,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -195,12 +132,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -530,10 +461,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -546,52 +479,52 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>13</v>
+      <c r="C3" s="2">
+        <v>2010</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2011</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2012</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2013</v>
+      </c>
+      <c r="G3" s="2">
+        <v>2014</v>
+      </c>
+      <c r="H3" s="2">
+        <v>2015</v>
+      </c>
+      <c r="I3" s="2">
+        <v>2016</v>
+      </c>
+      <c r="J3" s="2">
+        <v>2017</v>
+      </c>
+      <c r="K3" s="2">
+        <v>2018</v>
+      </c>
+      <c r="L3" s="2">
+        <v>2019</v>
+      </c>
+      <c r="M3" s="2">
+        <v>2020</v>
+      </c>
+      <c r="N3" s="2">
+        <v>2021</v>
+      </c>
+      <c r="O3" s="2">
+        <v>2022</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C4" s="3">
         <v>6</v>
@@ -635,7 +568,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C5" s="3">
         <v>279</v>
@@ -679,7 +612,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C6" s="3">
         <v>59</v>
@@ -723,146 +656,145 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>